--- a/results/mass2.xlsx
+++ b/results/mass2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Storage\PROG\githubClone\McTao_lunar_solar_sail\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B57E10-A159-4EA6-9762-526E011C90D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDA5888-4B5D-48ED-B4D5-8B66CCD9474A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{53B6CB65-3830-4261-9BF0-2E7575E3D9BF}"/>
   </bookViews>
@@ -33,15 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>observation zone</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>odd</t>
   </si>
   <si>
     <t>payload mass</t>
@@ -93,6 +87,12 @@
   </si>
   <si>
     <t>m/s</t>
+  </si>
+  <si>
+    <t>ascendante</t>
+  </si>
+  <si>
+    <t>descendante</t>
   </si>
 </sst>
 </file>
@@ -646,7 +646,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -661,9 +661,6 @@
     <xf numFmtId="0" fontId="19" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1053,22 +1050,22 @@
   <sheetData>
     <row r="1" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" s="11">
         <v>50</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E1" s="11">
         <v>40</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
@@ -1273,151 +1270,151 @@
     </row>
     <row r="3" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="14">
+        <v>19</v>
+      </c>
+      <c r="B3" s="13">
         <v>0</v>
       </c>
       <c r="C3" s="13">
-        <v>89.608989622816097</v>
+        <v>89.745099658704007</v>
       </c>
       <c r="D3" s="13">
         <v>0</v>
       </c>
       <c r="E3" s="13">
-        <v>89.217043390792</v>
+        <v>89.555996093857402</v>
       </c>
       <c r="F3" s="13">
         <v>0</v>
       </c>
       <c r="G3" s="13">
-        <v>88.822246013515795</v>
+        <v>89.254329624999102</v>
       </c>
       <c r="H3" s="13">
         <v>0</v>
       </c>
       <c r="I3" s="13">
-        <v>88.422740217841707</v>
+        <v>88.9483684433782</v>
       </c>
       <c r="J3" s="13">
         <v>0</v>
       </c>
       <c r="K3" s="13">
-        <v>88.020749916260797</v>
+        <v>88.654006325795294</v>
       </c>
       <c r="L3" s="13">
         <v>0</v>
       </c>
       <c r="M3" s="13">
-        <v>87.6258700123837</v>
+        <v>88.350787253482295</v>
       </c>
       <c r="N3" s="13">
         <v>0</v>
       </c>
       <c r="O3" s="13">
-        <v>87.2579823162244</v>
+        <v>88.015315852881997</v>
       </c>
       <c r="P3" s="13">
         <v>0</v>
       </c>
       <c r="Q3" s="13">
-        <v>86.933486455814801</v>
+        <v>87.604848549903295</v>
       </c>
       <c r="R3" s="13">
         <v>0</v>
       </c>
       <c r="S3" s="13">
-        <v>86.651661855115506</v>
+        <v>87.096857492166393</v>
       </c>
       <c r="T3" s="13">
         <v>0</v>
       </c>
       <c r="U3" s="13">
-        <v>86.384661272256807</v>
+        <v>86.519853661331894</v>
       </c>
       <c r="V3" s="13">
         <v>0</v>
       </c>
       <c r="W3" s="13">
-        <v>86.098600594626106</v>
+        <v>85.935835941991698</v>
       </c>
       <c r="X3" s="13">
         <v>0</v>
       </c>
       <c r="Y3" s="13">
-        <v>85.771632081527599</v>
+        <v>85.400318805999703</v>
       </c>
       <c r="Z3" s="13">
         <v>0</v>
       </c>
       <c r="AA3" s="13">
-        <v>85.412462032138905</v>
+        <v>84.921694180382701</v>
       </c>
       <c r="AB3" s="13">
         <v>0</v>
       </c>
       <c r="AC3" s="13">
-        <v>85.038217014955904</v>
+        <v>84.498468831169106</v>
       </c>
       <c r="AD3" s="13">
         <v>0</v>
       </c>
       <c r="AE3" s="13">
-        <v>84.659221920298606</v>
+        <v>84.136108380360298</v>
       </c>
       <c r="AF3" s="13">
         <v>0</v>
       </c>
       <c r="AG3" s="13">
-        <v>84.281493562397998</v>
+        <v>83.844128260488802</v>
       </c>
       <c r="AH3" s="13">
         <v>0</v>
       </c>
       <c r="AI3" s="13">
-        <v>83.910798319982604</v>
+        <v>83.4886066162492</v>
       </c>
       <c r="AJ3" s="13">
         <v>0</v>
       </c>
       <c r="AK3" s="13">
-        <v>83.5548202785981</v>
+        <v>83.238096830901995</v>
       </c>
       <c r="AL3" s="13">
         <v>0</v>
       </c>
       <c r="AM3" s="13">
-        <v>83.2249561307991</v>
+        <v>82.994124743618201</v>
       </c>
       <c r="AN3" s="13">
         <v>0</v>
       </c>
       <c r="AO3" s="13">
-        <v>82.938463191019594</v>
+        <v>82.765467160141199</v>
       </c>
       <c r="AP3" s="13">
         <v>0</v>
       </c>
       <c r="AQ3" s="13">
-        <v>82.706767159765405</v>
+        <v>82.499012713721797</v>
       </c>
       <c r="AR3" s="13">
         <v>0</v>
       </c>
       <c r="AS3" s="13">
-        <v>82.506732560108105</v>
+        <v>82.175924990361594</v>
       </c>
       <c r="AT3" s="13">
         <v>0</v>
       </c>
       <c r="AU3" s="13">
-        <v>82.277371102213706</v>
+        <v>81.820744250461502</v>
       </c>
       <c r="AV3" s="13">
         <v>0</v>
       </c>
       <c r="AW3" s="13">
-        <v>81.972395471623301</v>
+        <v>81.456519757246298</v>
       </c>
       <c r="AX3" s="13">
         <v>0</v>
@@ -1428,148 +1425,148 @@
     </row>
     <row r="4" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="14">
-        <v>89.661291612343206</v>
+        <v>18</v>
+      </c>
+      <c r="B4" s="13">
+        <v>89.767877214353703</v>
       </c>
       <c r="C4" s="13">
         <v>0</v>
       </c>
       <c r="D4" s="13">
-        <v>89.2994341284695</v>
+        <v>89.583777505393599</v>
       </c>
       <c r="E4" s="13">
         <v>0</v>
       </c>
       <c r="F4" s="13">
-        <v>88.910348623558704</v>
+        <v>89.266513523666404</v>
       </c>
       <c r="G4" s="13">
         <v>0</v>
       </c>
       <c r="H4" s="13">
-        <v>88.490278161296104</v>
+        <v>89.050964546008998</v>
       </c>
       <c r="I4" s="13">
         <v>0</v>
       </c>
       <c r="J4" s="13">
-        <v>88.040884369093206</v>
+        <v>88.843953256017102</v>
       </c>
       <c r="K4" s="13">
         <v>0</v>
       </c>
       <c r="L4" s="13">
-        <v>87.573339175500706</v>
+        <v>88.601928615038702</v>
       </c>
       <c r="M4" s="13">
         <v>0</v>
       </c>
       <c r="N4" s="13">
-        <v>87.098734654349499</v>
+        <v>88.307186409772399</v>
       </c>
       <c r="O4" s="13">
         <v>0</v>
       </c>
       <c r="P4" s="13">
-        <v>86.630207195775</v>
+        <v>87.972875893338596</v>
       </c>
       <c r="Q4" s="13">
         <v>0</v>
       </c>
       <c r="R4" s="13">
-        <v>86.190884733306603</v>
+        <v>87.618182257472597</v>
       </c>
       <c r="S4" s="13">
         <v>0</v>
       </c>
       <c r="T4" s="13">
-        <v>85.807724968028694</v>
+        <v>87.254596973271006</v>
       </c>
       <c r="U4" s="13">
         <v>0</v>
       </c>
       <c r="V4" s="13">
-        <v>85.477482863600798</v>
+        <v>86.888795529328505</v>
       </c>
       <c r="W4" s="13">
         <v>0</v>
       </c>
       <c r="X4" s="13">
-        <v>85.153037999677693</v>
+        <v>86.526644591108607</v>
       </c>
       <c r="Y4" s="13">
         <v>0</v>
       </c>
       <c r="Z4" s="13">
-        <v>84.776275284586305</v>
+        <v>86.183466669349102</v>
       </c>
       <c r="AA4" s="13">
         <v>0</v>
       </c>
       <c r="AB4" s="13">
-        <v>84.283501412288601</v>
+        <v>85.877911056515401</v>
       </c>
       <c r="AC4" s="13">
         <v>0</v>
       </c>
       <c r="AD4" s="13">
-        <v>82.057711818182597</v>
+        <v>85.627096948887399</v>
       </c>
       <c r="AE4" s="13">
         <v>0</v>
       </c>
       <c r="AF4" s="13">
-        <v>81.649097038709897</v>
+        <v>85.411149745113903</v>
       </c>
       <c r="AG4" s="13">
         <v>0</v>
       </c>
       <c r="AH4" s="13">
-        <v>81.348724773948604</v>
+        <v>85.204871600362793</v>
       </c>
       <c r="AI4" s="13">
         <v>0</v>
       </c>
       <c r="AJ4" s="13">
-        <v>81.094484825754805</v>
+        <v>85.011676428956505</v>
       </c>
       <c r="AK4" s="13">
         <v>0</v>
       </c>
       <c r="AL4" s="13">
-        <v>80.763311311143795</v>
+        <v>84.828818743668904</v>
       </c>
       <c r="AM4" s="13">
         <v>0</v>
       </c>
       <c r="AN4" s="13">
-        <v>80.381101895213305</v>
+        <v>84.587617908161107</v>
       </c>
       <c r="AO4" s="13">
         <v>0</v>
       </c>
       <c r="AP4" s="13">
-        <v>79.975747177963598</v>
+        <v>84.274105866739902</v>
       </c>
       <c r="AQ4" s="13">
         <v>0</v>
       </c>
       <c r="AR4" s="13">
-        <v>79.574112427781799</v>
+        <v>83.9247235207514</v>
       </c>
       <c r="AS4" s="13">
         <v>0</v>
       </c>
       <c r="AT4" s="13">
-        <v>79.080143849510705</v>
+        <v>83.567525385138396</v>
       </c>
       <c r="AU4" s="13">
         <v>0</v>
       </c>
       <c r="AV4" s="13">
-        <v>78.7160392981461</v>
+        <v>83.215124968189699</v>
       </c>
       <c r="AW4" s="13">
         <v>0</v>
@@ -1582,1350 +1579,1338 @@
       </c>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="15"/>
-      <c r="AB5" s="15"/>
-      <c r="AC5" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD5" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE5" s="15"/>
-      <c r="AF5" s="15"/>
-      <c r="AG5" s="15"/>
-      <c r="AH5" s="15"/>
-      <c r="AI5" s="15"/>
-      <c r="AJ5" s="15"/>
-      <c r="AK5" s="15"/>
-      <c r="AL5" s="15"/>
-      <c r="AM5" s="15"/>
-      <c r="AN5" s="15"/>
-      <c r="AO5" s="15"/>
-      <c r="AP5" s="15"/>
-      <c r="AQ5" s="15"/>
-      <c r="AR5" s="15"/>
-      <c r="AS5" s="15"/>
-      <c r="AT5" s="15"/>
-      <c r="AU5" s="15"/>
-      <c r="AV5" s="15"/>
-      <c r="AW5" s="15"/>
-      <c r="AX5" s="15"/>
-      <c r="AY5" s="15"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE5" s="14"/>
+      <c r="AF5" s="14"/>
+      <c r="AG5" s="14"/>
+      <c r="AH5" s="14"/>
+      <c r="AI5" s="14"/>
+      <c r="AJ5" s="14"/>
+      <c r="AK5" s="14"/>
+      <c r="AL5" s="14"/>
+      <c r="AM5" s="14"/>
+      <c r="AN5" s="14"/>
+      <c r="AO5" s="14"/>
+      <c r="AP5" s="14"/>
+      <c r="AQ5" s="14"/>
+      <c r="AR5" s="14"/>
+      <c r="AS5" s="14"/>
+      <c r="AT5" s="14"/>
+      <c r="AU5" s="14"/>
+      <c r="AV5" s="14"/>
+      <c r="AW5" s="14"/>
+      <c r="AX5" s="14"/>
+      <c r="AY5" s="14"/>
     </row>
     <row r="6" spans="1:51" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16"/>
-      <c r="AA6" s="16"/>
-      <c r="AB6" s="16"/>
-      <c r="AC6" s="16"/>
-      <c r="AD6" s="16"/>
-      <c r="AE6" s="16"/>
-      <c r="AF6" s="16"/>
-      <c r="AG6" s="16"/>
-      <c r="AH6" s="16"/>
-      <c r="AI6" s="16"/>
-      <c r="AJ6" s="16"/>
-      <c r="AK6" s="16"/>
-      <c r="AL6" s="16"/>
-      <c r="AM6" s="16"/>
-      <c r="AN6" s="16"/>
-      <c r="AO6" s="16"/>
-      <c r="AP6" s="16"/>
-      <c r="AQ6" s="16"/>
-      <c r="AR6" s="16"/>
-      <c r="AS6" s="16"/>
-      <c r="AT6" s="16"/>
-      <c r="AU6" s="16"/>
-      <c r="AV6" s="16"/>
-      <c r="AW6" s="16"/>
-      <c r="AX6" s="16"/>
-      <c r="AY6" s="16"/>
+      <c r="A6" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="15"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="15"/>
+      <c r="AD6" s="15"/>
+      <c r="AE6" s="15"/>
+      <c r="AF6" s="15"/>
+      <c r="AG6" s="15"/>
+      <c r="AH6" s="15"/>
+      <c r="AI6" s="15"/>
+      <c r="AJ6" s="15"/>
+      <c r="AK6" s="15"/>
+      <c r="AL6" s="15"/>
+      <c r="AM6" s="15"/>
+      <c r="AN6" s="15"/>
+      <c r="AO6" s="15"/>
+      <c r="AP6" s="15"/>
+      <c r="AQ6" s="15"/>
+      <c r="AR6" s="15"/>
+      <c r="AS6" s="15"/>
+      <c r="AT6" s="15"/>
+      <c r="AU6" s="15"/>
+      <c r="AV6" s="15"/>
+      <c r="AW6" s="15"/>
+      <c r="AX6" s="15"/>
+      <c r="AY6" s="15"/>
     </row>
     <row r="7" spans="1:51" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="17">
+      <c r="A7" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="16">
         <f>C3-$B$1</f>
-        <v>39.608989622816097</v>
-      </c>
-      <c r="C7" s="17">
+        <v>39.745099658704007</v>
+      </c>
+      <c r="C7" s="16">
         <f>E3-$B$1</f>
-        <v>39.217043390792</v>
-      </c>
-      <c r="D7" s="17">
+        <v>39.555996093857402</v>
+      </c>
+      <c r="D7" s="16">
         <f>G3-$B$1</f>
-        <v>38.822246013515795</v>
-      </c>
-      <c r="E7" s="17">
+        <v>39.254329624999102</v>
+      </c>
+      <c r="E7" s="16">
         <f>I3-$B$1</f>
-        <v>38.422740217841707</v>
-      </c>
-      <c r="F7" s="17">
+        <v>38.9483684433782</v>
+      </c>
+      <c r="F7" s="16">
         <f>K3-$B$1</f>
-        <v>38.020749916260797</v>
-      </c>
-      <c r="G7" s="17">
+        <v>38.654006325795294</v>
+      </c>
+      <c r="G7" s="16">
         <f>M3-$B$1</f>
-        <v>37.6258700123837</v>
-      </c>
-      <c r="H7" s="17">
+        <v>38.350787253482295</v>
+      </c>
+      <c r="H7" s="16">
         <f>O3-$B$1</f>
-        <v>37.2579823162244</v>
-      </c>
-      <c r="I7" s="17">
+        <v>38.015315852881997</v>
+      </c>
+      <c r="I7" s="16">
         <f>Q3-$B$1</f>
-        <v>36.933486455814801</v>
-      </c>
-      <c r="J7" s="17">
+        <v>37.604848549903295</v>
+      </c>
+      <c r="J7" s="16">
         <f>S3-$B$1</f>
-        <v>36.651661855115506</v>
-      </c>
-      <c r="K7" s="17">
+        <v>37.096857492166393</v>
+      </c>
+      <c r="K7" s="16">
         <f>U3-$B$1</f>
-        <v>36.384661272256807</v>
-      </c>
-      <c r="L7" s="17">
+        <v>36.519853661331894</v>
+      </c>
+      <c r="L7" s="16">
         <f>W3-$B$1</f>
-        <v>36.098600594626106</v>
-      </c>
-      <c r="M7" s="17">
+        <v>35.935835941991698</v>
+      </c>
+      <c r="M7" s="16">
         <f>Y3-$B$1</f>
-        <v>35.771632081527599</v>
-      </c>
-      <c r="N7" s="17">
+        <v>35.400318805999703</v>
+      </c>
+      <c r="N7" s="16">
         <f>AA3-$B$1</f>
-        <v>35.412462032138905</v>
-      </c>
-      <c r="O7" s="17">
+        <v>34.921694180382701</v>
+      </c>
+      <c r="O7" s="16">
         <f>AC3-$B$1</f>
-        <v>35.038217014955904</v>
-      </c>
-      <c r="P7" s="17">
+        <v>34.498468831169106</v>
+      </c>
+      <c r="P7" s="16">
         <f>AE3-$B$1</f>
-        <v>34.659221920298606</v>
-      </c>
-      <c r="Q7" s="17">
+        <v>34.136108380360298</v>
+      </c>
+      <c r="Q7" s="16">
         <f>AG3-$B$1</f>
-        <v>34.281493562397998</v>
-      </c>
-      <c r="R7" s="17">
+        <v>33.844128260488802</v>
+      </c>
+      <c r="R7" s="16">
         <f>AI3-$B$1</f>
-        <v>33.910798319982604</v>
-      </c>
-      <c r="S7" s="17">
+        <v>33.4886066162492</v>
+      </c>
+      <c r="S7" s="16">
         <f>AK3-$B$1</f>
-        <v>33.5548202785981</v>
-      </c>
-      <c r="T7" s="17">
+        <v>33.238096830901995</v>
+      </c>
+      <c r="T7" s="16">
         <f>AM3-$B$1</f>
-        <v>33.2249561307991</v>
-      </c>
-      <c r="U7" s="17">
+        <v>32.994124743618201</v>
+      </c>
+      <c r="U7" s="16">
         <f>AO3-$B$1</f>
-        <v>32.938463191019594</v>
-      </c>
-      <c r="V7" s="17">
+        <v>32.765467160141199</v>
+      </c>
+      <c r="V7" s="16">
         <f>AQ3-$B$1</f>
-        <v>32.706767159765405</v>
-      </c>
-      <c r="W7" s="17">
+        <v>32.499012713721797</v>
+      </c>
+      <c r="W7" s="16">
         <f>AS3-$B$1</f>
-        <v>32.506732560108105</v>
-      </c>
-      <c r="X7" s="17">
+        <v>32.175924990361594</v>
+      </c>
+      <c r="X7" s="16">
         <f>AU3-$B$1</f>
-        <v>32.277371102213706</v>
-      </c>
-      <c r="Y7" s="17">
+        <v>31.820744250461502</v>
+      </c>
+      <c r="Y7" s="16">
         <f>AW3-$B$1</f>
-        <v>31.972395471623301</v>
-      </c>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="17"/>
-      <c r="AB7" s="17"/>
-      <c r="AC7" s="17"/>
-      <c r="AD7" s="17"/>
-      <c r="AE7" s="17"/>
-      <c r="AF7" s="17"/>
-      <c r="AG7" s="17"/>
-      <c r="AH7" s="17"/>
-      <c r="AI7" s="17"/>
-      <c r="AJ7" s="17"/>
-      <c r="AK7" s="17"/>
-      <c r="AL7" s="17"/>
-      <c r="AM7" s="17"/>
-      <c r="AN7" s="17"/>
-      <c r="AO7" s="17"/>
-      <c r="AP7" s="17"/>
-      <c r="AQ7" s="17"/>
-      <c r="AR7" s="17"/>
-      <c r="AS7" s="17"/>
-      <c r="AT7" s="17"/>
-      <c r="AU7" s="17"/>
-      <c r="AV7" s="17"/>
-      <c r="AW7" s="17"/>
-      <c r="AX7" s="17"/>
-      <c r="AY7" s="17"/>
+        <v>31.456519757246298</v>
+      </c>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16"/>
+      <c r="AC7" s="16"/>
+      <c r="AD7" s="16"/>
+      <c r="AE7" s="16"/>
+      <c r="AF7" s="16"/>
+      <c r="AG7" s="16"/>
+      <c r="AH7" s="16"/>
+      <c r="AI7" s="16"/>
+      <c r="AJ7" s="16"/>
+      <c r="AK7" s="16"/>
+      <c r="AL7" s="16"/>
+      <c r="AM7" s="16"/>
+      <c r="AN7" s="16"/>
+      <c r="AO7" s="16"/>
+      <c r="AP7" s="16"/>
+      <c r="AQ7" s="16"/>
+      <c r="AR7" s="16"/>
+      <c r="AS7" s="16"/>
+      <c r="AT7" s="16"/>
+      <c r="AU7" s="16"/>
+      <c r="AV7" s="16"/>
+      <c r="AW7" s="16"/>
+      <c r="AX7" s="16"/>
+      <c r="AY7" s="16"/>
     </row>
     <row r="8" spans="1:51" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="17">
+      <c r="A8" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="16">
         <f>B4-$B$1</f>
-        <v>39.661291612343206</v>
-      </c>
-      <c r="C8" s="17">
+        <v>39.767877214353703</v>
+      </c>
+      <c r="C8" s="16">
         <f>D4-$B$1</f>
-        <v>39.2994341284695</v>
-      </c>
-      <c r="D8" s="17">
+        <v>39.583777505393599</v>
+      </c>
+      <c r="D8" s="16">
         <f>F4-$B$1</f>
-        <v>38.910348623558704</v>
-      </c>
-      <c r="E8" s="17">
+        <v>39.266513523666404</v>
+      </c>
+      <c r="E8" s="16">
         <f>H4-$B$1</f>
-        <v>38.490278161296104</v>
-      </c>
-      <c r="F8" s="17">
+        <v>39.050964546008998</v>
+      </c>
+      <c r="F8" s="16">
         <f>J4-$B$1</f>
-        <v>38.040884369093206</v>
-      </c>
-      <c r="G8" s="17">
+        <v>38.843953256017102</v>
+      </c>
+      <c r="G8" s="16">
         <f>L4-$B$1</f>
-        <v>37.573339175500706</v>
-      </c>
-      <c r="H8" s="17">
+        <v>38.601928615038702</v>
+      </c>
+      <c r="H8" s="16">
         <f>N4-$B$1</f>
-        <v>37.098734654349499</v>
-      </c>
-      <c r="I8" s="17">
+        <v>38.307186409772399</v>
+      </c>
+      <c r="I8" s="16">
         <f>P4-$B$1</f>
-        <v>36.630207195775</v>
-      </c>
-      <c r="J8" s="17">
+        <v>37.972875893338596</v>
+      </c>
+      <c r="J8" s="16">
         <f>R4-$B$1</f>
-        <v>36.190884733306603</v>
-      </c>
-      <c r="K8" s="17">
+        <v>37.618182257472597</v>
+      </c>
+      <c r="K8" s="16">
         <f>T4-$B$1</f>
-        <v>35.807724968028694</v>
-      </c>
-      <c r="L8" s="17">
+        <v>37.254596973271006</v>
+      </c>
+      <c r="L8" s="16">
         <f>V4-$B$1</f>
-        <v>35.477482863600798</v>
-      </c>
-      <c r="M8" s="17">
+        <v>36.888795529328505</v>
+      </c>
+      <c r="M8" s="16">
         <f>X4-$B$1</f>
-        <v>35.153037999677693</v>
-      </c>
-      <c r="N8" s="17">
+        <v>36.526644591108607</v>
+      </c>
+      <c r="N8" s="16">
         <f>Z4-$B$1</f>
-        <v>34.776275284586305</v>
-      </c>
-      <c r="O8" s="17">
+        <v>36.183466669349102</v>
+      </c>
+      <c r="O8" s="16">
         <f>AB4-$B$1</f>
-        <v>34.283501412288601</v>
-      </c>
-      <c r="P8" s="17">
+        <v>35.877911056515401</v>
+      </c>
+      <c r="P8" s="16">
         <f>AD4-$B$1</f>
-        <v>32.057711818182597</v>
-      </c>
-      <c r="Q8" s="17">
+        <v>35.627096948887399</v>
+      </c>
+      <c r="Q8" s="16">
         <f>AF4-$B$1</f>
-        <v>31.649097038709897</v>
-      </c>
-      <c r="R8" s="17">
+        <v>35.411149745113903</v>
+      </c>
+      <c r="R8" s="16">
         <f>AH4-$B$1</f>
-        <v>31.348724773948604</v>
-      </c>
-      <c r="S8" s="17">
+        <v>35.204871600362793</v>
+      </c>
+      <c r="S8" s="16">
         <f>AJ4-$B$1</f>
-        <v>31.094484825754805</v>
-      </c>
-      <c r="T8" s="17">
+        <v>35.011676428956505</v>
+      </c>
+      <c r="T8" s="16">
         <f>AL4-$B$1</f>
-        <v>30.763311311143795</v>
-      </c>
-      <c r="U8" s="17">
+        <v>34.828818743668904</v>
+      </c>
+      <c r="U8" s="16">
         <f>AN4-$B$1</f>
-        <v>30.381101895213305</v>
-      </c>
-      <c r="V8" s="17">
+        <v>34.587617908161107</v>
+      </c>
+      <c r="V8" s="16">
         <f>AP4-$B$1</f>
-        <v>29.975747177963598</v>
-      </c>
-      <c r="W8" s="17">
+        <v>34.274105866739902</v>
+      </c>
+      <c r="W8" s="16">
         <f>AR4-$B$1</f>
-        <v>29.574112427781799</v>
-      </c>
-      <c r="X8" s="17">
+        <v>33.9247235207514</v>
+      </c>
+      <c r="X8" s="16">
         <f>AT4-$B$1</f>
-        <v>29.080143849510705</v>
-      </c>
-      <c r="Y8" s="17">
+        <v>33.567525385138396</v>
+      </c>
+      <c r="Y8" s="16">
         <f>AV4-$B$1</f>
-        <v>28.7160392981461</v>
-      </c>
-      <c r="Z8" s="17"/>
-      <c r="AA8" s="17"/>
-      <c r="AB8" s="17"/>
-      <c r="AC8" s="17"/>
-      <c r="AD8" s="17"/>
-      <c r="AE8" s="17"/>
-      <c r="AF8" s="17"/>
-      <c r="AG8" s="17"/>
-      <c r="AH8" s="17"/>
-      <c r="AI8" s="17"/>
-      <c r="AJ8" s="17"/>
-      <c r="AK8" s="17"/>
-      <c r="AL8" s="17"/>
-      <c r="AM8" s="17"/>
-      <c r="AN8" s="17"/>
-      <c r="AO8" s="17"/>
-      <c r="AP8" s="17"/>
-      <c r="AQ8" s="17"/>
-      <c r="AR8" s="17"/>
-      <c r="AS8" s="17"/>
-      <c r="AT8" s="17"/>
-      <c r="AU8" s="17"/>
-      <c r="AV8" s="17"/>
-      <c r="AW8" s="17"/>
-      <c r="AX8" s="17"/>
-      <c r="AY8" s="17"/>
+        <v>33.215124968189699</v>
+      </c>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="16"/>
+      <c r="AC8" s="16"/>
+      <c r="AD8" s="16"/>
+      <c r="AE8" s="16"/>
+      <c r="AF8" s="16"/>
+      <c r="AG8" s="16"/>
+      <c r="AH8" s="16"/>
+      <c r="AI8" s="16"/>
+      <c r="AJ8" s="16"/>
+      <c r="AK8" s="16"/>
+      <c r="AL8" s="16"/>
+      <c r="AM8" s="16"/>
+      <c r="AN8" s="16"/>
+      <c r="AO8" s="16"/>
+      <c r="AP8" s="16"/>
+      <c r="AQ8" s="16"/>
+      <c r="AR8" s="16"/>
+      <c r="AS8" s="16"/>
+      <c r="AT8" s="16"/>
+      <c r="AU8" s="16"/>
+      <c r="AV8" s="16"/>
+      <c r="AW8" s="16"/>
+      <c r="AX8" s="16"/>
+      <c r="AY8" s="16"/>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="P9" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="15"/>
-      <c r="AC9" s="15"/>
-      <c r="AD9" s="15"/>
-      <c r="AE9" s="15"/>
-      <c r="AF9" s="15"/>
-      <c r="AG9" s="15"/>
-      <c r="AH9" s="15"/>
-      <c r="AI9" s="15"/>
-      <c r="AJ9" s="15"/>
-      <c r="AK9" s="15"/>
-      <c r="AL9" s="15"/>
-      <c r="AM9" s="15"/>
-      <c r="AN9" s="15"/>
-      <c r="AO9" s="15"/>
-      <c r="AP9" s="15"/>
-      <c r="AQ9" s="15"/>
-      <c r="AR9" s="15"/>
-      <c r="AS9" s="15"/>
-      <c r="AT9" s="15"/>
-      <c r="AU9" s="15"/>
-      <c r="AV9" s="15"/>
-      <c r="AW9" s="15"/>
-      <c r="AX9" s="15"/>
-      <c r="AY9" s="15"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="14"/>
+      <c r="AE9" s="14"/>
+      <c r="AF9" s="14"/>
+      <c r="AG9" s="14"/>
+      <c r="AH9" s="14"/>
+      <c r="AI9" s="14"/>
+      <c r="AJ9" s="14"/>
+      <c r="AK9" s="14"/>
+      <c r="AL9" s="14"/>
+      <c r="AM9" s="14"/>
+      <c r="AN9" s="14"/>
+      <c r="AO9" s="14"/>
+      <c r="AP9" s="14"/>
+      <c r="AQ9" s="14"/>
+      <c r="AR9" s="14"/>
+      <c r="AS9" s="14"/>
+      <c r="AT9" s="14"/>
+      <c r="AU9" s="14"/>
+      <c r="AV9" s="14"/>
+      <c r="AW9" s="14"/>
+      <c r="AX9" s="14"/>
+      <c r="AY9" s="14"/>
     </row>
     <row r="10" spans="1:51" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="18"/>
-      <c r="AA10" s="18"/>
-      <c r="AB10" s="18"/>
-      <c r="AC10" s="18"/>
-      <c r="AD10" s="18"/>
-      <c r="AE10" s="18"/>
-      <c r="AF10" s="18"/>
-      <c r="AG10" s="18"/>
-      <c r="AH10" s="18"/>
-      <c r="AI10" s="18"/>
-      <c r="AJ10" s="18"/>
-      <c r="AK10" s="18"/>
-      <c r="AL10" s="18"/>
-      <c r="AM10" s="18"/>
-      <c r="AN10" s="18"/>
-      <c r="AO10" s="18"/>
-      <c r="AP10" s="18"/>
-      <c r="AQ10" s="18"/>
-      <c r="AR10" s="18"/>
-      <c r="AS10" s="18"/>
-      <c r="AT10" s="18"/>
-      <c r="AU10" s="18"/>
-      <c r="AV10" s="18"/>
-      <c r="AW10" s="18"/>
-      <c r="AX10" s="18"/>
-      <c r="AY10" s="18"/>
+      <c r="A10" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="17"/>
+      <c r="AB10" s="17"/>
+      <c r="AC10" s="17"/>
+      <c r="AD10" s="17"/>
+      <c r="AE10" s="17"/>
+      <c r="AF10" s="17"/>
+      <c r="AG10" s="17"/>
+      <c r="AH10" s="17"/>
+      <c r="AI10" s="17"/>
+      <c r="AJ10" s="17"/>
+      <c r="AK10" s="17"/>
+      <c r="AL10" s="17"/>
+      <c r="AM10" s="17"/>
+      <c r="AN10" s="17"/>
+      <c r="AO10" s="17"/>
+      <c r="AP10" s="17"/>
+      <c r="AQ10" s="17"/>
+      <c r="AR10" s="17"/>
+      <c r="AS10" s="17"/>
+      <c r="AT10" s="17"/>
+      <c r="AU10" s="17"/>
+      <c r="AV10" s="17"/>
+      <c r="AW10" s="17"/>
+      <c r="AX10" s="17"/>
+      <c r="AY10" s="17"/>
     </row>
     <row r="11" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="20">
+      <c r="A11" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="19">
         <f>B7/$E$1</f>
-        <v>0.99022474057040244</v>
-      </c>
-      <c r="C11" s="20">
+        <v>0.99362749146760021</v>
+      </c>
+      <c r="C11" s="19">
         <f t="shared" ref="C11:Y11" si="0">C7/$E$1</f>
-        <v>0.98042608476979998</v>
-      </c>
-      <c r="D11" s="20">
+        <v>0.9888999023464351</v>
+      </c>
+      <c r="D11" s="19">
         <f t="shared" si="0"/>
-        <v>0.97055615033789489</v>
-      </c>
-      <c r="E11" s="20">
+        <v>0.98135824062497756</v>
+      </c>
+      <c r="E11" s="19">
         <f t="shared" si="0"/>
-        <v>0.96056850544604266</v>
-      </c>
-      <c r="F11" s="20">
+        <v>0.97370921108445496</v>
+      </c>
+      <c r="F11" s="19">
         <f t="shared" si="0"/>
-        <v>0.95051874790651991</v>
-      </c>
-      <c r="G11" s="20">
+        <v>0.96635015814488234</v>
+      </c>
+      <c r="G11" s="19">
         <f t="shared" si="0"/>
-        <v>0.94064675030959255</v>
-      </c>
-      <c r="H11" s="20">
+        <v>0.95876968133705742</v>
+      </c>
+      <c r="H11" s="19">
         <f t="shared" si="0"/>
-        <v>0.93144955790561001</v>
-      </c>
-      <c r="I11" s="20">
+        <v>0.95038289632204997</v>
+      </c>
+      <c r="I11" s="19">
         <f t="shared" si="0"/>
-        <v>0.92333716139537003</v>
-      </c>
-      <c r="J11" s="20">
+        <v>0.9401212137475824</v>
+      </c>
+      <c r="J11" s="19">
         <f t="shared" si="0"/>
-        <v>0.91629154637788768</v>
-      </c>
-      <c r="K11" s="20">
+        <v>0.92742143730415982</v>
+      </c>
+      <c r="K11" s="19">
         <f t="shared" si="0"/>
-        <v>0.90961653180642021</v>
-      </c>
-      <c r="L11" s="20">
+        <v>0.91299634153329734</v>
+      </c>
+      <c r="L11" s="19">
         <f t="shared" si="0"/>
-        <v>0.90246501486565267</v>
-      </c>
-      <c r="M11" s="20">
+        <v>0.8983958985497924</v>
+      </c>
+      <c r="M11" s="19">
         <f t="shared" si="0"/>
-        <v>0.89429080203819</v>
-      </c>
-      <c r="N11" s="20">
+        <v>0.88500797014999255</v>
+      </c>
+      <c r="N11" s="19">
         <f t="shared" si="0"/>
-        <v>0.88531155080347257</v>
-      </c>
-      <c r="O11" s="20">
+        <v>0.87304235450956758</v>
+      </c>
+      <c r="O11" s="19">
         <f t="shared" si="0"/>
-        <v>0.87595542537389759</v>
-      </c>
-      <c r="P11" s="20">
+        <v>0.86246172077922767</v>
+      </c>
+      <c r="P11" s="19">
         <f t="shared" si="0"/>
-        <v>0.8664805480074651</v>
-      </c>
-      <c r="Q11" s="20">
+        <v>0.85340270950900743</v>
+      </c>
+      <c r="Q11" s="19">
         <f t="shared" si="0"/>
-        <v>0.85703733905994994</v>
-      </c>
-      <c r="R11" s="20">
+        <v>0.84610320651222004</v>
+      </c>
+      <c r="R11" s="19">
         <f t="shared" si="0"/>
-        <v>0.84776995799956512</v>
-      </c>
-      <c r="S11" s="20">
+        <v>0.83721516540622998</v>
+      </c>
+      <c r="S11" s="19">
         <f t="shared" si="0"/>
-        <v>0.83887050696495247</v>
-      </c>
-      <c r="T11" s="20">
+        <v>0.83095242077254983</v>
+      </c>
+      <c r="T11" s="19">
         <f t="shared" si="0"/>
-        <v>0.83062390326997748</v>
-      </c>
-      <c r="U11" s="20">
+        <v>0.82485311859045507</v>
+      </c>
+      <c r="U11" s="19">
         <f t="shared" si="0"/>
-        <v>0.82346157977548984</v>
-      </c>
-      <c r="V11" s="20">
+        <v>0.81913667900352993</v>
+      </c>
+      <c r="V11" s="19">
         <f t="shared" si="0"/>
-        <v>0.81766917899413516</v>
-      </c>
-      <c r="W11" s="20">
+        <v>0.81247531784304494</v>
+      </c>
+      <c r="W11" s="19">
         <f t="shared" si="0"/>
-        <v>0.81266831400270267</v>
-      </c>
-      <c r="X11" s="20">
+        <v>0.80439812475903982</v>
+      </c>
+      <c r="X11" s="19">
         <f t="shared" si="0"/>
-        <v>0.80693427755534264</v>
-      </c>
-      <c r="Y11" s="20">
+        <v>0.79551860626153759</v>
+      </c>
+      <c r="Y11" s="19">
         <f t="shared" si="0"/>
-        <v>0.79930988679058257</v>
-      </c>
-      <c r="Z11" s="19"/>
-      <c r="AA11" s="19"/>
-      <c r="AB11" s="19"/>
-      <c r="AC11" s="19"/>
-      <c r="AD11" s="19"/>
-      <c r="AE11" s="19"/>
-      <c r="AF11" s="19"/>
-      <c r="AG11" s="19"/>
-      <c r="AH11" s="19"/>
-      <c r="AI11" s="19"/>
-      <c r="AJ11" s="19"/>
-      <c r="AK11" s="19"/>
-      <c r="AL11" s="19"/>
-      <c r="AM11" s="19"/>
-      <c r="AN11" s="19"/>
-      <c r="AO11" s="19"/>
-      <c r="AP11" s="19"/>
-      <c r="AQ11" s="19"/>
-      <c r="AR11" s="19"/>
-      <c r="AS11" s="19"/>
-      <c r="AT11" s="19"/>
-      <c r="AU11" s="19"/>
-      <c r="AV11" s="19"/>
-      <c r="AW11" s="19"/>
-      <c r="AX11" s="19"/>
-      <c r="AY11" s="19"/>
+        <v>0.78641299393115749</v>
+      </c>
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="18"/>
+      <c r="AB11" s="18"/>
+      <c r="AC11" s="18"/>
+      <c r="AD11" s="18"/>
+      <c r="AE11" s="18"/>
+      <c r="AF11" s="18"/>
+      <c r="AG11" s="18"/>
+      <c r="AH11" s="18"/>
+      <c r="AI11" s="18"/>
+      <c r="AJ11" s="18"/>
+      <c r="AK11" s="18"/>
+      <c r="AL11" s="18"/>
+      <c r="AM11" s="18"/>
+      <c r="AN11" s="18"/>
+      <c r="AO11" s="18"/>
+      <c r="AP11" s="18"/>
+      <c r="AQ11" s="18"/>
+      <c r="AR11" s="18"/>
+      <c r="AS11" s="18"/>
+      <c r="AT11" s="18"/>
+      <c r="AU11" s="18"/>
+      <c r="AV11" s="18"/>
+      <c r="AW11" s="18"/>
+      <c r="AX11" s="18"/>
+      <c r="AY11" s="18"/>
     </row>
     <row r="12" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="20">
+      <c r="A12" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="19">
         <f>B8/$E$1</f>
-        <v>0.99153229030858014</v>
-      </c>
-      <c r="C12" s="20">
+        <v>0.9941969303588426</v>
+      </c>
+      <c r="C12" s="19">
         <f t="shared" ref="C12:Y12" si="1">C8/$E$1</f>
-        <v>0.98248585321173754</v>
-      </c>
-      <c r="D12" s="20">
+        <v>0.98959443763484001</v>
+      </c>
+      <c r="D12" s="19">
         <f t="shared" si="1"/>
-        <v>0.97275871558896765</v>
-      </c>
-      <c r="E12" s="20">
+        <v>0.98166283809166011</v>
+      </c>
+      <c r="E12" s="19">
         <f t="shared" si="1"/>
-        <v>0.96225695403240263</v>
-      </c>
-      <c r="F12" s="20">
+        <v>0.97627411365022498</v>
+      </c>
+      <c r="F12" s="19">
         <f t="shared" si="1"/>
-        <v>0.9510221092273301</v>
-      </c>
-      <c r="G12" s="20">
+        <v>0.97109883140042752</v>
+      </c>
+      <c r="G12" s="19">
         <f t="shared" si="1"/>
-        <v>0.93933347938751766</v>
-      </c>
-      <c r="H12" s="20">
+        <v>0.96504821537596752</v>
+      </c>
+      <c r="H12" s="19">
         <f t="shared" si="1"/>
-        <v>0.92746836635873753</v>
-      </c>
-      <c r="I12" s="20">
+        <v>0.95767966024430995</v>
+      </c>
+      <c r="I12" s="19">
         <f t="shared" si="1"/>
-        <v>0.91575517989437505</v>
-      </c>
-      <c r="J12" s="20">
+        <v>0.94932189733346495</v>
+      </c>
+      <c r="J12" s="19">
         <f t="shared" si="1"/>
-        <v>0.90477211833266513</v>
-      </c>
-      <c r="K12" s="20">
+        <v>0.94045455643681497</v>
+      </c>
+      <c r="K12" s="19">
         <f t="shared" si="1"/>
-        <v>0.89519312420071739</v>
-      </c>
-      <c r="L12" s="20">
+        <v>0.9313649243317752</v>
+      </c>
+      <c r="L12" s="19">
         <f t="shared" si="1"/>
-        <v>0.88693707159002</v>
-      </c>
-      <c r="M12" s="20">
+        <v>0.92221988823321266</v>
+      </c>
+      <c r="M12" s="19">
         <f t="shared" si="1"/>
-        <v>0.8788259499919423</v>
-      </c>
-      <c r="N12" s="20">
+        <v>0.91316611477771514</v>
+      </c>
+      <c r="N12" s="19">
         <f t="shared" si="1"/>
-        <v>0.86940688211465766</v>
-      </c>
-      <c r="O12" s="20">
+        <v>0.90458666673372756</v>
+      </c>
+      <c r="O12" s="19">
         <f t="shared" si="1"/>
-        <v>0.85708753530721504</v>
-      </c>
-      <c r="P12" s="20">
+        <v>0.89694777641288503</v>
+      </c>
+      <c r="P12" s="19">
         <f t="shared" si="1"/>
-        <v>0.80144279545456487</v>
-      </c>
-      <c r="Q12" s="20">
+        <v>0.89067742372218495</v>
+      </c>
+      <c r="Q12" s="19">
         <f t="shared" si="1"/>
-        <v>0.79122742596774742</v>
-      </c>
-      <c r="R12" s="20">
+        <v>0.88527874362784753</v>
+      </c>
+      <c r="R12" s="19">
         <f t="shared" si="1"/>
-        <v>0.78371811934871505</v>
-      </c>
-      <c r="S12" s="20">
+        <v>0.88012179000906987</v>
+      </c>
+      <c r="S12" s="19">
         <f t="shared" si="1"/>
-        <v>0.77736212064387011</v>
-      </c>
-      <c r="T12" s="20">
+        <v>0.87529191072391266</v>
+      </c>
+      <c r="T12" s="19">
         <f t="shared" si="1"/>
-        <v>0.76908278277859488</v>
-      </c>
-      <c r="U12" s="20">
+        <v>0.87072046859172259</v>
+      </c>
+      <c r="U12" s="19">
         <f t="shared" si="1"/>
-        <v>0.75952754738033268</v>
-      </c>
-      <c r="V12" s="20">
+        <v>0.8646904477040277</v>
+      </c>
+      <c r="V12" s="19">
         <f t="shared" si="1"/>
-        <v>0.74939367944908997</v>
-      </c>
-      <c r="W12" s="20">
+        <v>0.85685264666849759</v>
+      </c>
+      <c r="W12" s="19">
         <f t="shared" si="1"/>
-        <v>0.73935281069454495</v>
-      </c>
-      <c r="X12" s="20">
+        <v>0.84811808801878497</v>
+      </c>
+      <c r="X12" s="19">
         <f t="shared" si="1"/>
-        <v>0.72700359623776767</v>
-      </c>
-      <c r="Y12" s="20">
+        <v>0.83918813462845987</v>
+      </c>
+      <c r="Y12" s="19">
         <f t="shared" si="1"/>
-        <v>0.71790098245365253</v>
-      </c>
-      <c r="Z12" s="19"/>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="19"/>
-      <c r="AC12" s="19"/>
-      <c r="AD12" s="19"/>
-      <c r="AE12" s="19"/>
-      <c r="AF12" s="19"/>
-      <c r="AG12" s="19"/>
-      <c r="AH12" s="19"/>
-      <c r="AI12" s="19"/>
-      <c r="AJ12" s="19"/>
-      <c r="AK12" s="19"/>
-      <c r="AL12" s="19"/>
-      <c r="AM12" s="19"/>
-      <c r="AN12" s="19"/>
-      <c r="AO12" s="19"/>
-      <c r="AP12" s="19"/>
-      <c r="AQ12" s="19"/>
-      <c r="AR12" s="19"/>
-      <c r="AS12" s="19"/>
-      <c r="AT12" s="19"/>
-      <c r="AU12" s="19"/>
-      <c r="AV12" s="19"/>
-      <c r="AW12" s="19"/>
-      <c r="AX12" s="19"/>
-      <c r="AY12" s="19"/>
+        <v>0.83037812420474244</v>
+      </c>
+      <c r="Z12" s="18"/>
+      <c r="AA12" s="18"/>
+      <c r="AB12" s="18"/>
+      <c r="AC12" s="18"/>
+      <c r="AD12" s="18"/>
+      <c r="AE12" s="18"/>
+      <c r="AF12" s="18"/>
+      <c r="AG12" s="18"/>
+      <c r="AH12" s="18"/>
+      <c r="AI12" s="18"/>
+      <c r="AJ12" s="18"/>
+      <c r="AK12" s="18"/>
+      <c r="AL12" s="18"/>
+      <c r="AM12" s="18"/>
+      <c r="AN12" s="18"/>
+      <c r="AO12" s="18"/>
+      <c r="AP12" s="18"/>
+      <c r="AQ12" s="18"/>
+      <c r="AR12" s="18"/>
+      <c r="AS12" s="18"/>
+      <c r="AT12" s="18"/>
+      <c r="AU12" s="18"/>
+      <c r="AV12" s="18"/>
+      <c r="AW12" s="18"/>
+      <c r="AX12" s="18"/>
+      <c r="AY12" s="18"/>
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="P13" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="15"/>
-      <c r="AA13" s="15"/>
-      <c r="AB13" s="15"/>
-      <c r="AC13" s="15"/>
-      <c r="AD13" s="15"/>
-      <c r="AE13" s="15"/>
-      <c r="AF13" s="15"/>
-      <c r="AG13" s="15"/>
-      <c r="AH13" s="15"/>
-      <c r="AI13" s="15"/>
-      <c r="AJ13" s="15"/>
-      <c r="AK13" s="15"/>
-      <c r="AL13" s="15"/>
-      <c r="AM13" s="15"/>
-      <c r="AN13" s="15"/>
-      <c r="AO13" s="15"/>
-      <c r="AP13" s="15"/>
-      <c r="AQ13" s="15"/>
-      <c r="AR13" s="15"/>
-      <c r="AS13" s="15"/>
-      <c r="AT13" s="15"/>
-      <c r="AU13" s="15"/>
-      <c r="AV13" s="15"/>
-      <c r="AW13" s="15"/>
-      <c r="AX13" s="15"/>
-      <c r="AY13" s="15"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14"/>
+      <c r="AE13" s="14"/>
+      <c r="AF13" s="14"/>
+      <c r="AG13" s="14"/>
+      <c r="AH13" s="14"/>
+      <c r="AI13" s="14"/>
+      <c r="AJ13" s="14"/>
+      <c r="AK13" s="14"/>
+      <c r="AL13" s="14"/>
+      <c r="AM13" s="14"/>
+      <c r="AN13" s="14"/>
+      <c r="AO13" s="14"/>
+      <c r="AP13" s="14"/>
+      <c r="AQ13" s="14"/>
+      <c r="AR13" s="14"/>
+      <c r="AS13" s="14"/>
+      <c r="AT13" s="14"/>
+      <c r="AU13" s="14"/>
+      <c r="AV13" s="14"/>
+      <c r="AW13" s="14"/>
+      <c r="AX13" s="14"/>
+      <c r="AY13" s="14"/>
     </row>
     <row r="14" spans="1:51" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="21"/>
-      <c r="Y14" s="21"/>
-      <c r="Z14" s="21"/>
-      <c r="AA14" s="21"/>
-      <c r="AB14" s="21"/>
-      <c r="AC14" s="21"/>
-      <c r="AD14" s="21"/>
-      <c r="AE14" s="21"/>
-      <c r="AF14" s="21"/>
-      <c r="AG14" s="21"/>
-      <c r="AH14" s="21"/>
-      <c r="AI14" s="21"/>
-      <c r="AJ14" s="21"/>
-      <c r="AK14" s="21"/>
-      <c r="AL14" s="21"/>
-      <c r="AM14" s="21"/>
-      <c r="AN14" s="21"/>
-      <c r="AO14" s="21"/>
-      <c r="AP14" s="21"/>
-      <c r="AQ14" s="21"/>
-      <c r="AR14" s="21"/>
-      <c r="AS14" s="21"/>
-      <c r="AT14" s="21"/>
-      <c r="AU14" s="21"/>
-      <c r="AV14" s="21"/>
-      <c r="AW14" s="21"/>
-      <c r="AX14" s="21"/>
-      <c r="AY14" s="21"/>
+      <c r="A14" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="20"/>
+      <c r="AA14" s="20"/>
+      <c r="AB14" s="20"/>
+      <c r="AC14" s="20"/>
+      <c r="AD14" s="20"/>
+      <c r="AE14" s="20"/>
+      <c r="AF14" s="20"/>
+      <c r="AG14" s="20"/>
+      <c r="AH14" s="20"/>
+      <c r="AI14" s="20"/>
+      <c r="AJ14" s="20"/>
+      <c r="AK14" s="20"/>
+      <c r="AL14" s="20"/>
+      <c r="AM14" s="20"/>
+      <c r="AN14" s="20"/>
+      <c r="AO14" s="20"/>
+      <c r="AP14" s="20"/>
+      <c r="AQ14" s="20"/>
+      <c r="AR14" s="20"/>
+      <c r="AS14" s="20"/>
+      <c r="AT14" s="20"/>
+      <c r="AU14" s="20"/>
+      <c r="AV14" s="20"/>
+      <c r="AW14" s="20"/>
+      <c r="AX14" s="20"/>
+      <c r="AY14" s="20"/>
     </row>
     <row r="15" spans="1:51" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="22">
+      <c r="A15" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="21">
         <f>40-B7</f>
-        <v>0.3910103771839033</v>
-      </c>
-      <c r="C15" s="22">
+        <v>0.25490034129599337</v>
+      </c>
+      <c r="C15" s="21">
         <f>B7-C7</f>
-        <v>0.39194623202409673</v>
-      </c>
-      <c r="D15" s="22">
+        <v>0.1891035648466044</v>
+      </c>
+      <c r="D15" s="21">
         <f t="shared" ref="D15:Y15" si="2">C7-D7</f>
-        <v>0.39479737727620545</v>
-      </c>
-      <c r="E15" s="22">
+        <v>0.30166646885830062</v>
+      </c>
+      <c r="E15" s="21">
         <f t="shared" si="2"/>
-        <v>0.39950579567408795</v>
-      </c>
-      <c r="F15" s="22">
+        <v>0.30596118162090136</v>
+      </c>
+      <c r="F15" s="21">
         <f t="shared" si="2"/>
-        <v>0.4019903015809092</v>
-      </c>
-      <c r="G15" s="22">
+        <v>0.29436211758290654</v>
+      </c>
+      <c r="G15" s="21">
         <f t="shared" si="2"/>
-        <v>0.39487990387709715</v>
-      </c>
-      <c r="H15" s="22">
+        <v>0.30321907231299861</v>
+      </c>
+      <c r="H15" s="21">
         <f t="shared" si="2"/>
-        <v>0.3678876961593005</v>
-      </c>
-      <c r="I15" s="22">
+        <v>0.3354714006002979</v>
+      </c>
+      <c r="I15" s="21">
         <f t="shared" si="2"/>
-        <v>0.32449586040959844</v>
-      </c>
-      <c r="J15" s="22">
+        <v>0.41046730297870226</v>
+      </c>
+      <c r="J15" s="21">
         <f t="shared" si="2"/>
-        <v>0.28182460069929505</v>
-      </c>
-      <c r="K15" s="22">
+        <v>0.50799105773690201</v>
+      </c>
+      <c r="K15" s="21">
         <f t="shared" si="2"/>
-        <v>0.26700058285869943</v>
-      </c>
-      <c r="L15" s="22">
+        <v>0.57700383083449935</v>
+      </c>
+      <c r="L15" s="21">
         <f t="shared" si="2"/>
-        <v>0.28606067763070087</v>
-      </c>
-      <c r="M15" s="22">
+        <v>0.58401771934019564</v>
+      </c>
+      <c r="M15" s="21">
         <f t="shared" si="2"/>
-        <v>0.32696851309850672</v>
-      </c>
-      <c r="N15" s="22">
+        <v>0.53551713599199502</v>
+      </c>
+      <c r="N15" s="21">
         <f t="shared" si="2"/>
-        <v>0.35917004938869468</v>
-      </c>
-      <c r="O15" s="22">
+        <v>0.4786246256170017</v>
+      </c>
+      <c r="O15" s="21">
         <f t="shared" si="2"/>
-        <v>0.37424501718300007</v>
-      </c>
-      <c r="P15" s="22">
+        <v>0.42322534921359534</v>
+      </c>
+      <c r="P15" s="21">
         <f t="shared" si="2"/>
-        <v>0.37899509465729864</v>
-      </c>
-      <c r="Q15" s="22">
+        <v>0.36236045080880785</v>
+      </c>
+      <c r="Q15" s="21">
         <f t="shared" si="2"/>
-        <v>0.3777283579006081</v>
-      </c>
-      <c r="R15" s="22">
+        <v>0.29198011987149641</v>
+      </c>
+      <c r="R15" s="21">
         <f t="shared" si="2"/>
-        <v>0.37069524241539398</v>
-      </c>
-      <c r="S15" s="22">
+        <v>0.35552164423960164</v>
+      </c>
+      <c r="S15" s="21">
         <f t="shared" si="2"/>
-        <v>0.35597804138450329</v>
-      </c>
-      <c r="T15" s="22">
+        <v>0.25050978534720514</v>
+      </c>
+      <c r="T15" s="21">
         <f t="shared" si="2"/>
-        <v>0.32986414779900031</v>
-      </c>
-      <c r="U15" s="22">
+        <v>0.24397208728379383</v>
+      </c>
+      <c r="U15" s="21">
         <f t="shared" si="2"/>
-        <v>0.28649293977950663</v>
-      </c>
-      <c r="V15" s="22">
+        <v>0.22865758347700194</v>
+      </c>
+      <c r="V15" s="21">
         <f t="shared" si="2"/>
-        <v>0.23169603125418803</v>
-      </c>
-      <c r="W15" s="22">
+        <v>0.2664544464194023</v>
+      </c>
+      <c r="W15" s="21">
         <f t="shared" si="2"/>
-        <v>0.2000345996573003</v>
-      </c>
-      <c r="X15" s="22">
+        <v>0.32308772336020297</v>
+      </c>
+      <c r="X15" s="21">
         <f t="shared" si="2"/>
-        <v>0.22936145789439877</v>
-      </c>
-      <c r="Y15" s="22">
+        <v>0.35518073990009214</v>
+      </c>
+      <c r="Y15" s="21">
         <f t="shared" si="2"/>
-        <v>0.30497563059040544</v>
-      </c>
-      <c r="Z15" s="22"/>
-      <c r="AA15" s="22"/>
-      <c r="AB15" s="22"/>
-      <c r="AC15" s="22"/>
-      <c r="AD15" s="22"/>
-      <c r="AE15" s="22"/>
-      <c r="AF15" s="22"/>
-      <c r="AG15" s="22"/>
-      <c r="AH15" s="22"/>
-      <c r="AI15" s="22"/>
-      <c r="AJ15" s="22"/>
-      <c r="AK15" s="22"/>
-      <c r="AL15" s="22"/>
-      <c r="AM15" s="22"/>
-      <c r="AN15" s="22"/>
-      <c r="AO15" s="22"/>
-      <c r="AP15" s="22"/>
-      <c r="AQ15" s="22"/>
-      <c r="AR15" s="22"/>
-      <c r="AS15" s="22"/>
-      <c r="AT15" s="22"/>
-      <c r="AU15" s="22"/>
-      <c r="AV15" s="22"/>
-      <c r="AW15" s="22"/>
-      <c r="AX15" s="22"/>
-      <c r="AY15" s="22"/>
+        <v>0.36422449321520389</v>
+      </c>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="21"/>
+      <c r="AC15" s="21"/>
+      <c r="AD15" s="21"/>
+      <c r="AE15" s="21"/>
+      <c r="AF15" s="21"/>
+      <c r="AG15" s="21"/>
+      <c r="AH15" s="21"/>
+      <c r="AI15" s="21"/>
+      <c r="AJ15" s="21"/>
+      <c r="AK15" s="21"/>
+      <c r="AL15" s="21"/>
+      <c r="AM15" s="21"/>
+      <c r="AN15" s="21"/>
+      <c r="AO15" s="21"/>
+      <c r="AP15" s="21"/>
+      <c r="AQ15" s="21"/>
+      <c r="AR15" s="21"/>
+      <c r="AS15" s="21"/>
+      <c r="AT15" s="21"/>
+      <c r="AU15" s="21"/>
+      <c r="AV15" s="21"/>
+      <c r="AW15" s="21"/>
+      <c r="AX15" s="21"/>
+      <c r="AY15" s="21"/>
     </row>
     <row r="16" spans="1:51" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="22">
+      <c r="A16" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="21">
         <f>40-B8</f>
-        <v>0.33870838765679423</v>
-      </c>
-      <c r="C16" s="22">
+        <v>0.23212278564629685</v>
+      </c>
+      <c r="C16" s="21">
         <f>B8-C8</f>
-        <v>0.36185748387370609</v>
-      </c>
-      <c r="D16" s="22">
+        <v>0.18409970896010464</v>
+      </c>
+      <c r="D16" s="21">
         <f t="shared" ref="D16:Y16" si="3">C8-D8</f>
-        <v>0.38908550491079552</v>
-      </c>
-      <c r="E16" s="22">
+        <v>0.31726398172719428</v>
+      </c>
+      <c r="E16" s="21">
         <f t="shared" si="3"/>
-        <v>0.42007046226260059</v>
-      </c>
-      <c r="F16" s="22">
+        <v>0.21554897765740577</v>
+      </c>
+      <c r="F16" s="21">
         <f t="shared" si="3"/>
-        <v>0.44939379220289766</v>
-      </c>
-      <c r="G16" s="22">
+        <v>0.20701128999189677</v>
+      </c>
+      <c r="G16" s="21">
         <f t="shared" si="3"/>
-        <v>0.46754519359249969</v>
-      </c>
-      <c r="H16" s="22">
+        <v>0.24202464097839993</v>
+      </c>
+      <c r="H16" s="21">
         <f t="shared" si="3"/>
-        <v>0.47460452115120688</v>
-      </c>
-      <c r="I16" s="22">
+        <v>0.2947422052663029</v>
+      </c>
+      <c r="I16" s="21">
         <f t="shared" si="3"/>
-        <v>0.46852745857449918</v>
-      </c>
-      <c r="J16" s="22">
+        <v>0.33431051643380272</v>
+      </c>
+      <c r="J16" s="21">
         <f t="shared" si="3"/>
-        <v>0.43932246246839668</v>
-      </c>
-      <c r="K16" s="22">
+        <v>0.35469363586599911</v>
+      </c>
+      <c r="K16" s="21">
         <f t="shared" si="3"/>
-        <v>0.38315976527790951</v>
-      </c>
-      <c r="L16" s="22">
+        <v>0.36358528420159075</v>
+      </c>
+      <c r="L16" s="21">
         <f t="shared" si="3"/>
-        <v>0.33024210442789581</v>
-      </c>
-      <c r="M16" s="22">
+        <v>0.36580144394250169</v>
+      </c>
+      <c r="M16" s="21">
         <f t="shared" si="3"/>
-        <v>0.32444486392310523</v>
-      </c>
-      <c r="N16" s="22">
+        <v>0.36215093821989797</v>
+      </c>
+      <c r="N16" s="21">
         <f t="shared" si="3"/>
-        <v>0.37676271509138815</v>
-      </c>
-      <c r="O16" s="22">
+        <v>0.34317792175950501</v>
+      </c>
+      <c r="O16" s="21">
         <f t="shared" si="3"/>
-        <v>0.49277387229770397</v>
-      </c>
-      <c r="P16" s="22">
+        <v>0.30555561283370025</v>
+      </c>
+      <c r="P16" s="21">
         <f t="shared" si="3"/>
-        <v>2.2257895941060042</v>
-      </c>
-      <c r="Q16" s="22">
+        <v>0.2508141076280026</v>
+      </c>
+      <c r="Q16" s="21">
         <f t="shared" si="3"/>
-        <v>0.40861477947269975</v>
-      </c>
-      <c r="R16" s="22">
+        <v>0.21594720377349574</v>
+      </c>
+      <c r="R16" s="21">
         <f t="shared" si="3"/>
-        <v>0.3003722647612932</v>
-      </c>
-      <c r="S16" s="22">
+        <v>0.20627814475110995</v>
+      </c>
+      <c r="S16" s="21">
         <f t="shared" si="3"/>
-        <v>0.25423994819379914</v>
-      </c>
-      <c r="T16" s="22">
+        <v>0.19319517140628761</v>
+      </c>
+      <c r="T16" s="21">
         <f t="shared" si="3"/>
-        <v>0.33117351461100952</v>
-      </c>
-      <c r="U16" s="22">
+        <v>0.18285768528760116</v>
+      </c>
+      <c r="U16" s="21">
         <f t="shared" si="3"/>
-        <v>0.38220941593048963</v>
-      </c>
-      <c r="V16" s="22">
+        <v>0.24120083550779725</v>
+      </c>
+      <c r="V16" s="21">
         <f t="shared" si="3"/>
-        <v>0.40535471724970762</v>
-      </c>
-      <c r="W16" s="22">
+        <v>0.31351204142120537</v>
+      </c>
+      <c r="W16" s="21">
         <f t="shared" si="3"/>
-        <v>0.40163475018179895</v>
-      </c>
-      <c r="X16" s="22">
+        <v>0.34938234598850215</v>
+      </c>
+      <c r="X16" s="21">
         <f t="shared" si="3"/>
-        <v>0.49396857827109386</v>
-      </c>
-      <c r="Y16" s="22">
+        <v>0.35719813561300384</v>
+      </c>
+      <c r="Y16" s="21">
         <f t="shared" si="3"/>
-        <v>0.36410455136460484</v>
-      </c>
-      <c r="Z16" s="22"/>
-      <c r="AA16" s="22"/>
-      <c r="AB16" s="22"/>
-      <c r="AC16" s="22"/>
-      <c r="AD16" s="22"/>
-      <c r="AE16" s="22"/>
-      <c r="AF16" s="22"/>
-      <c r="AG16" s="22"/>
-      <c r="AH16" s="22"/>
-      <c r="AI16" s="22"/>
-      <c r="AJ16" s="22"/>
-      <c r="AK16" s="22"/>
-      <c r="AL16" s="22"/>
-      <c r="AM16" s="22"/>
-      <c r="AN16" s="22"/>
-      <c r="AO16" s="22"/>
-      <c r="AP16" s="22"/>
-      <c r="AQ16" s="22"/>
-      <c r="AR16" s="22"/>
-      <c r="AS16" s="22"/>
-      <c r="AT16" s="22"/>
-      <c r="AU16" s="22"/>
-      <c r="AV16" s="22"/>
-      <c r="AW16" s="22"/>
-      <c r="AX16" s="22"/>
-      <c r="AY16" s="22"/>
+        <v>0.35240041694869717</v>
+      </c>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="21"/>
+      <c r="AC16" s="21"/>
+      <c r="AD16" s="21"/>
+      <c r="AE16" s="21"/>
+      <c r="AF16" s="21"/>
+      <c r="AG16" s="21"/>
+      <c r="AH16" s="21"/>
+      <c r="AI16" s="21"/>
+      <c r="AJ16" s="21"/>
+      <c r="AK16" s="21"/>
+      <c r="AL16" s="21"/>
+      <c r="AM16" s="21"/>
+      <c r="AN16" s="21"/>
+      <c r="AO16" s="21"/>
+      <c r="AP16" s="21"/>
+      <c r="AQ16" s="21"/>
+      <c r="AR16" s="21"/>
+      <c r="AS16" s="21"/>
+      <c r="AT16" s="21"/>
+      <c r="AU16" s="21"/>
+      <c r="AV16" s="21"/>
+      <c r="AW16" s="21"/>
+      <c r="AX16" s="21"/>
+      <c r="AY16" s="21"/>
     </row>
     <row r="17" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="P17" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="15"/>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="15"/>
-      <c r="Z17" s="15"/>
-      <c r="AA17" s="15"/>
-      <c r="AB17" s="15"/>
-      <c r="AC17" s="15"/>
-      <c r="AD17" s="15"/>
-      <c r="AE17" s="15"/>
-      <c r="AF17" s="15"/>
-      <c r="AG17" s="15"/>
-      <c r="AH17" s="15"/>
-      <c r="AI17" s="15"/>
-      <c r="AJ17" s="15"/>
-      <c r="AK17" s="15"/>
-      <c r="AL17" s="15"/>
-      <c r="AM17" s="15"/>
-      <c r="AN17" s="15"/>
-      <c r="AO17" s="15"/>
-      <c r="AP17" s="15"/>
-      <c r="AQ17" s="15"/>
-      <c r="AR17" s="15"/>
-      <c r="AS17" s="15"/>
-      <c r="AT17" s="15"/>
-      <c r="AU17" s="15"/>
-      <c r="AV17" s="15"/>
-      <c r="AW17" s="15"/>
-      <c r="AX17" s="15"/>
-      <c r="AY17" s="15"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="14"/>
+      <c r="AE17" s="14"/>
+      <c r="AF17" s="14"/>
+      <c r="AG17" s="14"/>
+      <c r="AH17" s="14"/>
+      <c r="AI17" s="14"/>
+      <c r="AJ17" s="14"/>
+      <c r="AK17" s="14"/>
+      <c r="AL17" s="14"/>
+      <c r="AM17" s="14"/>
+      <c r="AN17" s="14"/>
+      <c r="AO17" s="14"/>
+      <c r="AP17" s="14"/>
+      <c r="AQ17" s="14"/>
+      <c r="AR17" s="14"/>
+      <c r="AS17" s="14"/>
+      <c r="AT17" s="14"/>
+      <c r="AU17" s="14"/>
+      <c r="AV17" s="14"/>
+      <c r="AW17" s="14"/>
+      <c r="AX17" s="14"/>
+      <c r="AY17" s="14"/>
     </row>
     <row r="18" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15" t="s">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="15"/>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="15"/>
-      <c r="Z18" s="15"/>
-      <c r="AA18" s="15"/>
-      <c r="AB18" s="15"/>
-      <c r="AC18" s="15"/>
-      <c r="AD18" s="15"/>
-      <c r="AE18" s="15"/>
-      <c r="AF18" s="15"/>
-      <c r="AG18" s="15"/>
-      <c r="AH18" s="15"/>
-      <c r="AI18" s="15"/>
-      <c r="AJ18" s="15"/>
-      <c r="AK18" s="15"/>
-      <c r="AL18" s="15"/>
-      <c r="AM18" s="15"/>
-      <c r="AN18" s="15"/>
-      <c r="AO18" s="15"/>
-      <c r="AP18" s="15"/>
-      <c r="AQ18" s="15"/>
-      <c r="AR18" s="15"/>
-      <c r="AS18" s="15"/>
-      <c r="AT18" s="15"/>
-      <c r="AU18" s="15"/>
-      <c r="AV18" s="15"/>
-      <c r="AW18" s="15"/>
-      <c r="AX18" s="15"/>
-      <c r="AY18" s="15"/>
+      <c r="E18" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="14"/>
+      <c r="AE18" s="14"/>
+      <c r="AF18" s="14"/>
+      <c r="AG18" s="14"/>
+      <c r="AH18" s="14"/>
+      <c r="AI18" s="14"/>
+      <c r="AJ18" s="14"/>
+      <c r="AK18" s="14"/>
+      <c r="AL18" s="14"/>
+      <c r="AM18" s="14"/>
+      <c r="AN18" s="14"/>
+      <c r="AO18" s="14"/>
+      <c r="AP18" s="14"/>
+      <c r="AQ18" s="14"/>
+      <c r="AR18" s="14"/>
+      <c r="AS18" s="14"/>
+      <c r="AT18" s="14"/>
+      <c r="AU18" s="14"/>
+      <c r="AV18" s="14"/>
+      <c r="AW18" s="14"/>
+      <c r="AX18" s="14"/>
+      <c r="AY18" s="14"/>
     </row>
     <row r="19" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="15">
+      <c r="A19" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="14">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="14">
         <v>3000</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="22">
         <f>B19/C19/9.81*1000*3600</f>
         <v>3.0581039755351682</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="14">
         <f>LN((B1+E1)/E1)*C19*9.81</f>
         <v>23865.676263246558</v>
       </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="15"/>
-      <c r="V19" s="15"/>
-      <c r="W19" s="15"/>
-      <c r="X19" s="15"/>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="15"/>
-      <c r="AA19" s="15"/>
-      <c r="AB19" s="15"/>
-      <c r="AC19" s="15"/>
-      <c r="AD19" s="15"/>
-      <c r="AE19" s="15"/>
-      <c r="AF19" s="15"/>
-      <c r="AG19" s="15"/>
-      <c r="AH19" s="15"/>
-      <c r="AI19" s="15"/>
-      <c r="AJ19" s="15"/>
-      <c r="AK19" s="15"/>
-      <c r="AL19" s="15"/>
-      <c r="AM19" s="15"/>
-      <c r="AN19" s="15"/>
-      <c r="AO19" s="15"/>
-      <c r="AP19" s="15"/>
-      <c r="AQ19" s="15"/>
-      <c r="AR19" s="15"/>
-      <c r="AS19" s="15"/>
-      <c r="AT19" s="15"/>
-      <c r="AU19" s="15"/>
-      <c r="AV19" s="15"/>
-      <c r="AW19" s="15"/>
-      <c r="AX19" s="15"/>
-      <c r="AY19" s="15"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="14"/>
+      <c r="AE19" s="14"/>
+      <c r="AF19" s="14"/>
+      <c r="AG19" s="14"/>
+      <c r="AH19" s="14"/>
+      <c r="AI19" s="14"/>
+      <c r="AJ19" s="14"/>
+      <c r="AK19" s="14"/>
+      <c r="AL19" s="14"/>
+      <c r="AM19" s="14"/>
+      <c r="AN19" s="14"/>
+      <c r="AO19" s="14"/>
+      <c r="AP19" s="14"/>
+      <c r="AQ19" s="14"/>
+      <c r="AR19" s="14"/>
+      <c r="AS19" s="14"/>
+      <c r="AT19" s="14"/>
+      <c r="AU19" s="14"/>
+      <c r="AV19" s="14"/>
+      <c r="AW19" s="14"/>
+      <c r="AX19" s="14"/>
+      <c r="AY19" s="14"/>
     </row>
     <row r="20" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15" t="s">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="15" t="s">
+      <c r="E20" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="15"/>
-      <c r="V20" s="15"/>
-      <c r="W20" s="15"/>
-      <c r="X20" s="15"/>
-      <c r="Y20" s="15"/>
-      <c r="Z20" s="15"/>
-      <c r="AA20" s="15"/>
-      <c r="AB20" s="15"/>
-      <c r="AC20" s="15"/>
-      <c r="AD20" s="15"/>
-      <c r="AE20" s="15"/>
-      <c r="AF20" s="15"/>
-      <c r="AG20" s="15"/>
-      <c r="AH20" s="15"/>
-      <c r="AI20" s="15"/>
-      <c r="AJ20" s="15"/>
-      <c r="AK20" s="15"/>
-      <c r="AL20" s="15"/>
-      <c r="AM20" s="15"/>
-      <c r="AN20" s="15"/>
-      <c r="AO20" s="15"/>
-      <c r="AP20" s="15"/>
-      <c r="AQ20" s="15"/>
-      <c r="AR20" s="15"/>
-      <c r="AS20" s="15"/>
-      <c r="AT20" s="15"/>
-      <c r="AU20" s="15"/>
-      <c r="AV20" s="15"/>
-      <c r="AW20" s="15"/>
-      <c r="AX20" s="15"/>
-      <c r="AY20" s="15"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="14"/>
+      <c r="AC20" s="14"/>
+      <c r="AD20" s="14"/>
+      <c r="AE20" s="14"/>
+      <c r="AF20" s="14"/>
+      <c r="AG20" s="14"/>
+      <c r="AH20" s="14"/>
+      <c r="AI20" s="14"/>
+      <c r="AJ20" s="14"/>
+      <c r="AK20" s="14"/>
+      <c r="AL20" s="14"/>
+      <c r="AM20" s="14"/>
+      <c r="AN20" s="14"/>
+      <c r="AO20" s="14"/>
+      <c r="AP20" s="14"/>
+      <c r="AQ20" s="14"/>
+      <c r="AR20" s="14"/>
+      <c r="AS20" s="14"/>
+      <c r="AT20" s="14"/>
+      <c r="AU20" s="14"/>
+      <c r="AV20" s="14"/>
+      <c r="AW20" s="14"/>
+      <c r="AX20" s="14"/>
+      <c r="AY20" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
